--- a/target/classes/time_report_MOD.xlsx
+++ b/target/classes/time_report_MOD.xlsx
@@ -7118,9 +7118,7 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="I20" s="142" t="s">
-        <v>281</v>
-      </c>
+      <c r="I20" s="142"/>
       <c r="J20" s="142"/>
       <c r="K20" s="142"/>
       <c r="L20" s="142"/>
@@ -7281,7 +7279,9 @@
       <c r="CK22" s="14"/>
     </row>
     <row r="23" spans="1:89" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I23" s="149"/>
+      <c r="I23" s="149" t="s">
+        <v>281</v>
+      </c>
       <c r="J23" s="150"/>
       <c r="K23" s="150"/>
       <c r="L23" s="150"/>
